--- a/ar-doc/毕设文档/毕业设计指导手册_董亮亮_20130505238.xlsx
+++ b/ar-doc/毕设文档/毕业设计指导手册_董亮亮_20130505238.xlsx
@@ -122,60 +122,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指导毕业设计任务书的书写规范以及描述任务书内容需要提到的几个要点，还有就是对任务书内参考文献的时间范围做出了规定。</t>
-  </si>
-  <si>
-    <t>规范了毕业设计开题报告的书写格式，并且对毕业设计研究的内容，毕设项目的技术路线和研究总体进度的安排做出了指导。</t>
-  </si>
-  <si>
-    <t>毕业设计项目开发工具的指导，根据开题报告，选择合适的开发工具和合适数据库，并且在如何快捷的使用这些工具方面提出了宝贵的意见。</t>
-  </si>
-  <si>
     <t>中期检查，对工作进度进行检查，对项目已完成部分的不足以及未完成部分的困难进行分析和解决。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毕业设计项目的功能性指导，对已经完成的毕设项目的功能方面进行分析，提出改善功能方面的相关建议。为提高系统项目的完善度进行指导。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 毕业设计项目的测试指导，对经过完善的项目系统进行测试分析，并且对测试出的bug提出改进的方法。</t>
-  </si>
-  <si>
     <t>毕业论文初稿的指导，对毕业论文的格式规范进行规定，论文内部必须包含的内容进行说明。</t>
   </si>
   <si>
-    <t>一辩前毕业论文指导，对已经完成的论文初稿进行初次审阅，对其中一些内容不合理，格式不规范的地方提出建议。</t>
-  </si>
-  <si>
-    <t>最终毕业论文的指导和相关细节指导，对修改完成后的论文进行审阅，并且指导完成一些与毕业相关的文档。</t>
-  </si>
-  <si>
-    <t>经指导老师审核项目及论文，未获取一辩资格，结合指导老师的建议对论文中一些不合理和需要修改的地方提出宝贵的意见。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次查重后的指导，结合查重报告对论文重复的部分提出修改意见，参加二辩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.5.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.5.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次查重后的指导，结合查重报告对论文重复的部分提出修改意见，准备参加二辩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>准备设计环境，安装JDK、Eclipse开发工具，以及网站服务器Tomcat,搭建git仓库。查阅文献，收集资料，并递交开题报告。学习和掌握设计系统所用到的有关技术。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所选的题目应该从哪一部分入手，应该从哪方面去设计，需要搜集哪方面的资料提出宝贵的意见，总体描述。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业设计项目所涉及到的相关技术的指导，根据已经确定的开发工具以及开题报告中提出的需求，帮助分析并提出可能要用到的一系列技术，
-并给予相关学习网站，方便技术的学习。</t>
+  </si>
+  <si>
+    <t>对所选的题目应该从哪一部分入手，应该从哪方面去设计，需要搜集哪方面的资料提出宝贵的意见，
+总体描述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导毕业设计任务书的书写规范以及描述任务书内容需要提到的几个要点，还有就是对任务书内参考
+文献的时间范围做出了规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业设计项目开发工具的指导，根据开题报告，选择合适的开发工具和合适数据库，并且在如何快捷
+的使用这些工具方面提出了宝贵的意见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业设计项目的功能性指导，对已经完成的毕设项目的功能方面进行分析，提出改善功能方面的相
+关建议。为提高系统项目的完善度进行指导。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范了毕业设计开题报告的书写格式，并且对毕业设计研究的内容，毕设项目的技术路线和研究总体
+进度的安排做出了指导。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业设计项目所涉及到的相关技术的指导，根据已经确定的开发工具以及开题报告中提出的需求，帮助分析并提出可能要用到的一系列技术，并给予相关学习网站，方便技术的学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 毕业设计项目的测试指导，对经过完善的项目系统进行测试分析，并且对测试出的bug提出改进的
+方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一辩前毕业论文指导，对已经完成的论文初稿进行初次审阅，对其中一些内容不合理，格式不规范的
+地方提出建议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经指导老师审核项目及论文，未获取一辩资格，结合指导老师的建议对论文中一些不合理和需要修改
+的地方提出宝贵的意见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终毕业论文的指导和相关细节指导，对修改完成后的论文进行审阅，并且指导完成一些与毕业相关
+的文档。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +220,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -243,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,9 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,183 +572,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="140.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.77734375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="47.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="13" spans="1:3" ht="38.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
